--- a/data/evaluation/evaluation_South_Summer_Melons.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Melons.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3301.282281156344</v>
+        <v>3417.986430075575</v>
       </c>
       <c r="C4" t="n">
-        <v>19132217.89144849</v>
+        <v>20092541.7069133</v>
       </c>
       <c r="D4" t="n">
-        <v>4374.039082066882</v>
+        <v>4482.470491471561</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1830210120744916</v>
+        <v>0.1420135144968125</v>
       </c>
     </row>
     <row r="5">
